--- a/Cache/Metrics/Metrics_40.xlsx
+++ b/Cache/Metrics/Metrics_40.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>50.84</v>
+        <v>69.62</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Fri Jun 14 20:44:17 2024</t>
+          <t>Wed Jun 19 14:12:48 2024</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7043519394512772</v>
+        <v>0.7786046511627907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8601036269430051</v>
+        <v>0.7461139896373057</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8413352796804568</v>
+        <v>0.7660669834347169</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -745,36 +745,36 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8687085650243543</v>
+        <v>0.8659731022888918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9072841462826265</v>
+        <v>0.9071683552853765</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9034319192241154</v>
+        <v>0.9026653244140116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01720235635726185</v>
+        <v>0.01874863024876433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01027518971651748</v>
+        <v>0.01032361701738119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01025887826970405</v>
+        <v>0.01049075649109634</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>HRV_Heart_rate</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>HRV_MeanNN</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>HRV_SDNN</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -908,17 +908,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HRV_Heart_rate</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>HRV_MeanNN</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>HRV_SDNN</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -967,36 +967,36 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8104343578027787</v>
+        <v>0.8158437145279251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.831832971486467</v>
+        <v>0.8372751483572153</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8264170849512494</v>
+        <v>0.8315783423869846</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02353287923717911</v>
+        <v>0.02411637604297507</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009937375465300642</v>
+        <v>0.00940578608617079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01091764827837378</v>
+        <v>0.01066965291505439</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>HRV_Heart_rate</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HRV_MeanNN</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>HRV_SDNN</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1130,17 +1130,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>HRV_Heart_rate</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>HRV_MeanNN</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>HRV_SDNN</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>HRV_Heart_rate</t>
+          <t>ECG_HRV_Heart_rate</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>HRV_MeanNN</t>
+          <t>ECG_HRV_MeanNN</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>HRV_SDNN</t>
+          <t>ECG_HRV_SDNN</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8453650711545447</v>
+        <v>0.8457470560102138</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8885835349337304</v>
+        <v>0.8893444472013731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8812060767235791</v>
+        <v>0.8818338856700978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0237972196799281</v>
+        <v>0.02410147263668502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01048599914208291</v>
+        <v>0.01041697598804489</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01225656776129586</v>
+        <v>0.01225426531244913</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
